--- a/cnn/benchmark_results/MSFT.xlsx
+++ b/cnn/benchmark_results/MSFT.xlsx
@@ -488,28 +488,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4427033492822962</v>
+        <v>0.09921052631578926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1667161238517365</v>
+        <v>0.04664954052125892</v>
       </c>
       <c r="E2" t="n">
-        <v>43.54066985645933</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="F2" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>56.45933014354066</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="I2" t="n">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -520,28 +520,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7045693779904306</v>
+        <v>0.3494497607655501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2681314038031696</v>
+        <v>0.1444253393548658</v>
       </c>
       <c r="E3" t="n">
-        <v>44.25837320574163</v>
+        <v>65.07177033492823</v>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="G3" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H3" t="n">
-        <v>55.74162679425837</v>
+        <v>34.92822966507177</v>
       </c>
       <c r="I3" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="J3" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -552,28 +552,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.13744019138756</v>
+        <v>0.626052631578947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4316685184865697</v>
+        <v>0.2475082399478047</v>
       </c>
       <c r="E4" t="n">
-        <v>43.7799043062201</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="F4" t="n">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G4" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H4" t="n">
-        <v>56.2200956937799</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="I4" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -584,28 +584,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.150191387559808</v>
+        <v>0.739521531100478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4382087649032919</v>
+        <v>0.292858433682224</v>
       </c>
       <c r="E5" t="n">
-        <v>45.21531100478469</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G5" t="n">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>54.78468899521531</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="I5" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -616,28 +616,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.401794258373206</v>
+        <v>0.964043062200957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5303035152066631</v>
+        <v>0.3754929474390241</v>
       </c>
       <c r="E6" t="n">
-        <v>44.97607655502392</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="F6" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G6" t="n">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>55.02392344497608</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="I6" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="J6" t="n">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -648,28 +648,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.797033492822966</v>
+        <v>1.297320574162679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6740734653363688</v>
+        <v>0.4960762598546215</v>
       </c>
       <c r="E7" t="n">
-        <v>44.97607655502392</v>
+        <v>67.94258373205741</v>
       </c>
       <c r="F7" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G7" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>55.02392344497608</v>
+        <v>32.05741626794259</v>
       </c>
       <c r="I7" t="n">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -680,28 +680,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.502224880382775</v>
+        <v>1.220980861244019</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9382654372292761</v>
+        <v>0.4786603791823844</v>
       </c>
       <c r="E8" t="n">
-        <v>44.01913875598086</v>
+        <v>68.89952153110048</v>
       </c>
       <c r="F8" t="n">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G8" t="n">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>55.98086124401915</v>
+        <v>31.10047846889952</v>
       </c>
       <c r="I8" t="n">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="J8" t="n">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.737751196172248</v>
+        <v>1.373923444976076</v>
       </c>
       <c r="D9" t="n">
-        <v>1.022137476185905</v>
+        <v>0.5367938959487158</v>
       </c>
       <c r="E9" t="n">
-        <v>44.73684210526316</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="G9" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>55.26315789473685</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I9" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -744,28 +744,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3.06744019138756</v>
+        <v>1.534856459330143</v>
       </c>
       <c r="D10" t="n">
-        <v>1.148559074782679</v>
+        <v>0.5973977379734401</v>
       </c>
       <c r="E10" t="n">
-        <v>43.54066985645933</v>
+        <v>70.09569377990431</v>
       </c>
       <c r="F10" t="n">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G10" t="n">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
-        <v>56.45933014354066</v>
+        <v>29.90430622009569</v>
       </c>
       <c r="I10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J10" t="n">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3.25255980861244</v>
+        <v>1.775765550239234</v>
       </c>
       <c r="D11" t="n">
-        <v>1.216968345917083</v>
+        <v>0.6898031797359715</v>
       </c>
       <c r="E11" t="n">
-        <v>43.7799043062201</v>
+        <v>71.29186602870813</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="G11" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>56.2200956937799</v>
+        <v>28.70813397129186</v>
       </c>
       <c r="I11" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -808,28 +808,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3.499090909090909</v>
+        <v>1.795071770334928</v>
       </c>
       <c r="D12" t="n">
-        <v>1.307677291295475</v>
+        <v>0.7068610478915369</v>
       </c>
       <c r="E12" t="n">
-        <v>43.7799043062201</v>
+        <v>70.81339712918661</v>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="G12" t="n">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
-        <v>56.2200956937799</v>
+        <v>29.1866028708134</v>
       </c>
       <c r="I12" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="J12" t="n">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -840,28 +840,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>3.523277511961723</v>
+        <v>1.913421052631579</v>
       </c>
       <c r="D13" t="n">
-        <v>1.312233185374095</v>
+        <v>0.7528022964386563</v>
       </c>
       <c r="E13" t="n">
-        <v>45.45454545454545</v>
+        <v>71.29186602870813</v>
       </c>
       <c r="F13" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="G13" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="H13" t="n">
-        <v>54.54545454545454</v>
+        <v>28.70813397129186</v>
       </c>
       <c r="I13" t="n">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="J13" t="n">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -872,28 +872,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>3.676387559808613</v>
+        <v>1.927679425837321</v>
       </c>
       <c r="D14" t="n">
-        <v>1.367605460519973</v>
+        <v>0.7601011510923509</v>
       </c>
       <c r="E14" t="n">
-        <v>44.97607655502392</v>
+        <v>71.5311004784689</v>
       </c>
       <c r="F14" t="n">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>55.02392344497608</v>
+        <v>28.4688995215311</v>
       </c>
       <c r="I14" t="n">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="J14" t="n">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -904,28 +904,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>4.047511961722488</v>
+        <v>2.363875598086124</v>
       </c>
       <c r="D15" t="n">
-        <v>1.501804796112873</v>
+        <v>0.9077402023149744</v>
       </c>
       <c r="E15" t="n">
-        <v>45.45454545454545</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F15" t="n">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G15" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="H15" t="n">
-        <v>54.54545454545454</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I15" t="n">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -936,28 +936,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>4.302057416267943</v>
+        <v>2.446842105263157</v>
       </c>
       <c r="D16" t="n">
-        <v>1.590605280822597</v>
+        <v>0.9407569141412312</v>
       </c>
       <c r="E16" t="n">
-        <v>45.45454545454545</v>
+        <v>72.24880382775119</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="H16" t="n">
-        <v>54.54545454545454</v>
+        <v>27.7511961722488</v>
       </c>
       <c r="I16" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -968,28 +968,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>4.654186602870814</v>
+        <v>3.112655502392344</v>
       </c>
       <c r="D17" t="n">
-        <v>1.717156288423159</v>
+        <v>1.162910479162973</v>
       </c>
       <c r="E17" t="n">
-        <v>45.93301435406698</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F17" t="n">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G17" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H17" t="n">
-        <v>54.06698564593302</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I17" t="n">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="J17" t="n">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -1000,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>4.968851674641149</v>
+        <v>3.437033492822965</v>
       </c>
       <c r="D18" t="n">
-        <v>1.830778925066349</v>
+        <v>1.274780882606058</v>
       </c>
       <c r="E18" t="n">
-        <v>44.97607655502392</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="F18" t="n">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="G18" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
-        <v>55.02392344497608</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="I18" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -1032,28 +1032,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>5.224928229665073</v>
+        <v>3.353588516746411</v>
       </c>
       <c r="D19" t="n">
-        <v>1.922490381528905</v>
+        <v>1.252706123703761</v>
       </c>
       <c r="E19" t="n">
-        <v>45.93301435406698</v>
+        <v>72.24880382775119</v>
       </c>
       <c r="F19" t="n">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="G19" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H19" t="n">
-        <v>54.06698564593302</v>
+        <v>27.7511961722488</v>
       </c>
       <c r="I19" t="n">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="J19" t="n">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
@@ -1064,28 +1064,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>5.52287081339713</v>
+        <v>3.646124401913875</v>
       </c>
       <c r="D20" t="n">
-        <v>2.033681261339402</v>
+        <v>1.352871930747789</v>
       </c>
       <c r="E20" t="n">
-        <v>45.45454545454545</v>
+        <v>74.88038277511961</v>
       </c>
       <c r="F20" t="n">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G20" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H20" t="n">
-        <v>54.54545454545454</v>
+        <v>25.11961722488038</v>
       </c>
       <c r="I20" t="n">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="J20" t="n">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>5.805813397129188</v>
+        <v>3.998971291866029</v>
       </c>
       <c r="D21" t="n">
-        <v>2.137669157505875</v>
+        <v>1.473620280145848</v>
       </c>
       <c r="E21" t="n">
-        <v>44.25837320574163</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F21" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G21" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="H21" t="n">
-        <v>55.74162679425837</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I21" t="n">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="J21" t="n">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
@@ -1128,28 +1128,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.101220095693781</v>
+        <v>4.632894736842105</v>
       </c>
       <c r="D22" t="n">
-        <v>2.242526727337193</v>
+        <v>1.688972999492898</v>
       </c>
       <c r="E22" t="n">
-        <v>45.45454545454545</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F22" t="n">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="G22" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="H22" t="n">
-        <v>54.54545454545454</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I22" t="n">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="J22" t="n">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
@@ -1160,28 +1160,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.403373205741628</v>
+        <v>4.916531100478468</v>
       </c>
       <c r="D23" t="n">
-        <v>2.350516330867907</v>
+        <v>1.793067369658728</v>
       </c>
       <c r="E23" t="n">
-        <v>45.45454545454545</v>
+        <v>75.5980861244019</v>
       </c>
       <c r="F23" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>54.54545454545454</v>
+        <v>24.40191387559809</v>
       </c>
       <c r="I23" t="n">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -1192,28 +1192,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6.809760765550241</v>
+        <v>5.231626794258372</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496684560502841</v>
+        <v>1.906761157187905</v>
       </c>
       <c r="E24" t="n">
-        <v>45.45454545454545</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F24" t="n">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="G24" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H24" t="n">
-        <v>54.54545454545454</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I24" t="n">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
@@ -1224,28 +1224,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>7.010167464114834</v>
+        <v>5.804330143540668</v>
       </c>
       <c r="D25" t="n">
-        <v>2.565983097679361</v>
+        <v>2.100638840639546</v>
       </c>
       <c r="E25" t="n">
-        <v>45.93301435406698</v>
+        <v>74.16267942583733</v>
       </c>
       <c r="F25" t="n">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="G25" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H25" t="n">
-        <v>54.06698564593302</v>
+        <v>25.83732057416268</v>
       </c>
       <c r="I25" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="J25" t="n">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -1256,28 +1256,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>7.64074162679426</v>
+        <v>6.11944976076555</v>
       </c>
       <c r="D26" t="n">
-        <v>2.789777671451184</v>
+        <v>2.207456013629435</v>
       </c>
       <c r="E26" t="n">
-        <v>45.45454545454545</v>
+        <v>74.88038277511961</v>
       </c>
       <c r="F26" t="n">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="G26" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>54.54545454545454</v>
+        <v>25.11961722488038</v>
       </c>
       <c r="I26" t="n">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J26" t="n">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -1288,28 +1288,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>8.214856459330145</v>
+        <v>6.368397129186603</v>
       </c>
       <c r="D27" t="n">
-        <v>2.98976228969165</v>
+        <v>2.291212638608434</v>
       </c>
       <c r="E27" t="n">
-        <v>45.21531100478469</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F27" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>54.78468899521531</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I27" t="n">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="J27" t="n">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
@@ -1320,28 +1320,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>8.477368421052633</v>
+        <v>6.878995215311003</v>
       </c>
       <c r="D28" t="n">
-        <v>3.074728753041817</v>
+        <v>2.459542060067123</v>
       </c>
       <c r="E28" t="n">
-        <v>45.45454545454545</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F28" t="n">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G28" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>54.54545454545454</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I28" t="n">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="J28" t="n">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
@@ -1352,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>8.693181818181818</v>
+        <v>6.52208133971292</v>
       </c>
       <c r="D29" t="n">
-        <v>3.142445519939963</v>
+        <v>2.344232483673457</v>
       </c>
       <c r="E29" t="n">
-        <v>46.17224880382776</v>
+        <v>78.22966507177034</v>
       </c>
       <c r="F29" t="n">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="G29" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>53.82775119617224</v>
+        <v>21.77033492822967</v>
       </c>
       <c r="I29" t="n">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30">
@@ -1384,28 +1384,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.324712918660287</v>
+        <v>7.137344497607655</v>
       </c>
       <c r="D30" t="n">
-        <v>3.369318337526281</v>
+        <v>2.546839327575262</v>
       </c>
       <c r="E30" t="n">
-        <v>44.97607655502392</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F30" t="n">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G30" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>55.02392344497608</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I30" t="n">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
@@ -1416,28 +1416,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.604545454545455</v>
+        <v>7.333636363636364</v>
       </c>
       <c r="D31" t="n">
-        <v>3.466803680203895</v>
+        <v>2.618467162166056</v>
       </c>
       <c r="E31" t="n">
-        <v>45.21531100478469</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F31" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>54.78468899521531</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I31" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="J31" t="n">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
@@ -1448,28 +1448,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.771913875598086</v>
+        <v>7.609569377990431</v>
       </c>
       <c r="D32" t="n">
-        <v>3.52076744155894</v>
+        <v>2.715394183799246</v>
       </c>
       <c r="E32" t="n">
-        <v>45.93301435406698</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F32" t="n">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="G32" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>54.06698564593302</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I32" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="J32" t="n">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -1480,28 +1480,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>10.18069377990431</v>
+        <v>7.725382775119617</v>
       </c>
       <c r="D33" t="n">
-        <v>3.669001164514172</v>
+        <v>2.762326957590819</v>
       </c>
       <c r="E33" t="n">
-        <v>45.93301435406698</v>
+        <v>78.22966507177034</v>
       </c>
       <c r="F33" t="n">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="G33" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>54.06698564593302</v>
+        <v>21.77033492822967</v>
       </c>
       <c r="I33" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="J33" t="n">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -1512,28 +1512,28 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>10.98294258373206</v>
+        <v>7.83413875598086</v>
       </c>
       <c r="D34" t="n">
-        <v>3.958745926362402</v>
+        <v>2.8036355712379</v>
       </c>
       <c r="E34" t="n">
-        <v>46.88995215311004</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F34" t="n">
+        <v>191</v>
+      </c>
+      <c r="G34" t="n">
+        <v>13</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.5311004784689</v>
+      </c>
+      <c r="I34" t="n">
+        <v>77</v>
+      </c>
+      <c r="J34" t="n">
         <v>137</v>
-      </c>
-      <c r="G34" t="n">
-        <v>67</v>
-      </c>
-      <c r="H34" t="n">
-        <v>53.11004784688996</v>
-      </c>
-      <c r="I34" t="n">
-        <v>155</v>
-      </c>
-      <c r="J34" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="35">
@@ -1544,28 +1544,28 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>11.16016746411483</v>
+        <v>8.254952153110047</v>
       </c>
       <c r="D35" t="n">
-        <v>4.01895964690049</v>
+        <v>2.943726923078017</v>
       </c>
       <c r="E35" t="n">
-        <v>46.88995215311004</v>
+        <v>77.99043062200957</v>
       </c>
       <c r="F35" t="n">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>53.11004784688996</v>
+        <v>22.00956937799043</v>
       </c>
       <c r="I35" t="n">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -1576,28 +1576,28 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>11.68866028708134</v>
+        <v>8.760047846889952</v>
       </c>
       <c r="D36" t="n">
-        <v>4.207135740000884</v>
+        <v>3.115425763112718</v>
       </c>
       <c r="E36" t="n">
-        <v>47.12918660287082</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F36" t="n">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="G36" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>52.87081339712919</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I36" t="n">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="J36" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -1608,28 +1608,28 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>11.81107655502392</v>
+        <v>9.074138755980862</v>
       </c>
       <c r="D37" t="n">
-        <v>4.250477022998552</v>
+        <v>3.227446897799206</v>
       </c>
       <c r="E37" t="n">
-        <v>46.88995215311004</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F37" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="G37" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>53.11004784688996</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I37" t="n">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="J37" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38">
@@ -1640,28 +1640,28 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>11.70349282296651</v>
+        <v>8.84397129186603</v>
       </c>
       <c r="D38" t="n">
-        <v>4.215257626812444</v>
+        <v>3.160547055161898</v>
       </c>
       <c r="E38" t="n">
-        <v>46.65071770334928</v>
+        <v>78.70813397129187</v>
       </c>
       <c r="F38" t="n">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G38" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>53.34928229665071</v>
+        <v>21.29186602870814</v>
       </c>
       <c r="I38" t="n">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="J38" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -1672,28 +1672,28 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>12.26495215311005</v>
+        <v>8.932846889952154</v>
       </c>
       <c r="D39" t="n">
-        <v>4.418103823076688</v>
+        <v>3.19772819170448</v>
       </c>
       <c r="E39" t="n">
-        <v>47.12918660287082</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="F39" t="n">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="G39" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>52.87081339712919</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="I39" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="J39" t="n">
-        <v>51</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -1704,28 +1704,28 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>12.29985645933014</v>
+        <v>9.31263157894737</v>
       </c>
       <c r="D40" t="n">
-        <v>4.431716600649652</v>
+        <v>3.329465630384188</v>
       </c>
       <c r="E40" t="n">
-        <v>47.12918660287082</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F40" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G40" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>52.87081339712919</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I40" t="n">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="J40" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -1736,28 +1736,28 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>12.57588516746411</v>
+        <v>9.50976076555024</v>
       </c>
       <c r="D41" t="n">
-        <v>4.530648401446538</v>
+        <v>3.398051199697231</v>
       </c>
       <c r="E41" t="n">
-        <v>47.36842105263158</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F41" t="n">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="G41" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>52.63157894736842</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I41" t="n">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="J41" t="n">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -1768,28 +1768,28 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>12.75181818181818</v>
+        <v>9.579138755980862</v>
       </c>
       <c r="D42" t="n">
-        <v>4.591783690197773</v>
+        <v>3.42714682979119</v>
       </c>
       <c r="E42" t="n">
-        <v>47.36842105263158</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F42" t="n">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="G42" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>52.63157894736842</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I42" t="n">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="J42" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -1800,28 +1800,28 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>12.90595693779904</v>
+        <v>9.520933014354068</v>
       </c>
       <c r="D43" t="n">
-        <v>4.650789318948402</v>
+        <v>3.414309070668953</v>
       </c>
       <c r="E43" t="n">
-        <v>47.36842105263158</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F43" t="n">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="G43" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>52.63157894736842</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I43" t="n">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="J43" t="n">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -1832,28 +1832,28 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>13.15791866028708</v>
+        <v>9.629354066985645</v>
       </c>
       <c r="D44" t="n">
-        <v>4.745098679755482</v>
+        <v>3.459250098102237</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36842105263158</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F44" t="n">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="G44" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
-        <v>52.63157894736842</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I44" t="n">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="J44" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
@@ -1864,28 +1864,28 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>13.99363636363636</v>
+        <v>10.04770334928229</v>
       </c>
       <c r="D45" t="n">
-        <v>5.042123980212565</v>
+        <v>3.60651542382774</v>
       </c>
       <c r="E45" t="n">
-        <v>47.84688995215311</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F45" t="n">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="G45" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>52.15311004784689</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I45" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J45" t="n">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -1896,28 +1896,28 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>14.65483253588517</v>
+        <v>10.25540669856459</v>
       </c>
       <c r="D46" t="n">
-        <v>5.281286280753716</v>
+        <v>3.688215481593966</v>
       </c>
       <c r="E46" t="n">
-        <v>48.5645933014354</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F46" t="n">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="G46" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>51.43540669856459</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I46" t="n">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="J46" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -1928,28 +1928,28 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>14.73052631578948</v>
+        <v>10.90861244019139</v>
       </c>
       <c r="D47" t="n">
-        <v>5.311970281631564</v>
+        <v>3.914748764194389</v>
       </c>
       <c r="E47" t="n">
-        <v>47.84688995215311</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F47" t="n">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="G47" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H47" t="n">
-        <v>52.15311004784689</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I47" t="n">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48">
@@ -1960,28 +1960,28 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>15.28423444976077</v>
+        <v>10.49533492822966</v>
       </c>
       <c r="D48" t="n">
-        <v>5.511931863194478</v>
+        <v>3.792757077059982</v>
       </c>
       <c r="E48" t="n">
-        <v>48.08612440191388</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F48" t="n">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="G48" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>51.91387559808612</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I48" t="n">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="J48" t="n">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
@@ -1992,28 +1992,28 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>15.8333014354067</v>
+        <v>11.20181818181818</v>
       </c>
       <c r="D49" t="n">
-        <v>5.708639541187624</v>
+        <v>4.037284590610078</v>
       </c>
       <c r="E49" t="n">
-        <v>48.32535885167464</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F49" t="n">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>51.67464114832536</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I49" t="n">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="J49" t="n">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -2024,28 +2024,28 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>16.5393062200957</v>
+        <v>11.34069377990431</v>
       </c>
       <c r="D50" t="n">
-        <v>5.960080547017467</v>
+        <v>4.095484683667441</v>
       </c>
       <c r="E50" t="n">
-        <v>48.5645933014354</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="F50" t="n">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>51.43540669856459</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I50" t="n">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="J50" t="n">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -2056,28 +2056,28 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>17.13820574162679</v>
+        <v>11.51394736842105</v>
       </c>
       <c r="D51" t="n">
-        <v>6.171905362427125</v>
+        <v>4.16276037130813</v>
       </c>
       <c r="E51" t="n">
-        <v>49.04306220095694</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F51" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="G51" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>50.95693779904307</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I51" t="n">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="J51" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -2088,28 +2088,28 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>17.44641148325359</v>
+        <v>11.91081339712919</v>
       </c>
       <c r="D52" t="n">
-        <v>6.286294545272865</v>
+        <v>4.308903878495853</v>
       </c>
       <c r="E52" t="n">
-        <v>48.80382775119617</v>
+        <v>75.83732057416267</v>
       </c>
       <c r="F52" t="n">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="G52" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>51.19617224880383</v>
+        <v>24.16267942583732</v>
       </c>
       <c r="I52" t="n">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="J52" t="n">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
@@ -2120,28 +2120,28 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>17.2933971291866</v>
+        <v>10.72114832535885</v>
       </c>
       <c r="D53" t="n">
-        <v>6.242705683056229</v>
+        <v>3.936296914753593</v>
       </c>
       <c r="E53" t="n">
-        <v>48.32535885167464</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="F53" t="n">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>51.67464114832536</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I53" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
@@ -2152,28 +2152,28 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>17.71284688995215</v>
+        <v>10.51351674641148</v>
       </c>
       <c r="D54" t="n">
-        <v>6.392130143781026</v>
+        <v>3.882072050316864</v>
       </c>
       <c r="E54" t="n">
-        <v>48.32535885167464</v>
+        <v>77.99043062200957</v>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G54" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>51.67464114832536</v>
+        <v>22.00956937799043</v>
       </c>
       <c r="I54" t="n">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="J54" t="n">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
@@ -2184,28 +2184,28 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>17.86722488038277</v>
+        <v>10.80933014354067</v>
       </c>
       <c r="D55" t="n">
-        <v>6.4468577385015</v>
+        <v>3.992996584897342</v>
       </c>
       <c r="E55" t="n">
-        <v>47.60765550239234</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F55" t="n">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="G55" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>52.39234449760766</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I55" t="n">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="J55" t="n">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
@@ -2216,28 +2216,28 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>18.91401913875598</v>
+        <v>11.27923444976076</v>
       </c>
       <c r="D56" t="n">
-        <v>6.825445725400328</v>
+        <v>4.162587988971814</v>
       </c>
       <c r="E56" t="n">
-        <v>48.80382775119617</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F56" t="n">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G56" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>51.19617224880383</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I56" t="n">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="J56" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -2248,28 +2248,28 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>19.3072966507177</v>
+        <v>10.99480861244019</v>
       </c>
       <c r="D57" t="n">
-        <v>6.971933269518199</v>
+        <v>4.087408574403347</v>
       </c>
       <c r="E57" t="n">
-        <v>48.80382775119617</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F57" t="n">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="G57" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H57" t="n">
-        <v>51.19617224880383</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I57" t="n">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="J57" t="n">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
@@ -2280,28 +2280,28 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>19.69222488038278</v>
+        <v>11.39131578947368</v>
       </c>
       <c r="D58" t="n">
-        <v>7.115460088538937</v>
+        <v>4.236014408666049</v>
       </c>
       <c r="E58" t="n">
-        <v>48.80382775119617</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F58" t="n">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G58" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>51.19617224880383</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I58" t="n">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="J58" t="n">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
@@ -2312,28 +2312,28 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>20.04035885167464</v>
+        <v>11.2194976076555</v>
       </c>
       <c r="D59" t="n">
-        <v>7.244295536202312</v>
+        <v>4.194177536480604</v>
       </c>
       <c r="E59" t="n">
-        <v>48.80382775119617</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F59" t="n">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G59" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
-        <v>51.19617224880383</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I59" t="n">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="J59" t="n">
-        <v>61</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
@@ -2344,28 +2344,28 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>20.29198564593301</v>
+        <v>10.91643540669856</v>
       </c>
       <c r="D60" t="n">
-        <v>7.342414720903713</v>
+        <v>4.109097235516909</v>
       </c>
       <c r="E60" t="n">
-        <v>48.80382775119617</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F60" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G60" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>51.19617224880383</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I60" t="n">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61">
@@ -2376,28 +2376,28 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>20.01887559808612</v>
+        <v>10.70734449760765</v>
       </c>
       <c r="D61" t="n">
-        <v>7.255249013466834</v>
+        <v>4.05619448843571</v>
       </c>
       <c r="E61" t="n">
-        <v>47.60765550239234</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F61" t="n">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="G61" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H61" t="n">
-        <v>52.39234449760766</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I61" t="n">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="J61" t="n">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62">
@@ -2408,28 +2408,28 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>20.56688995215311</v>
+        <v>10.07612440191387</v>
       </c>
       <c r="D62" t="n">
-        <v>7.458793626735138</v>
+        <v>3.863603931373138</v>
       </c>
       <c r="E62" t="n">
-        <v>47.84688995215311</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G62" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>52.15311004784689</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I62" t="n">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="J62" t="n">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63">
@@ -2440,28 +2440,28 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>20.79093301435407</v>
+        <v>10.23906698564593</v>
       </c>
       <c r="D63" t="n">
-        <v>7.545444220713304</v>
+        <v>3.92601462062891</v>
       </c>
       <c r="E63" t="n">
-        <v>48.08612440191388</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F63" t="n">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G63" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>51.91387559808612</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I63" t="n">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="J63" t="n">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
@@ -2472,28 +2472,28 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>21.08538277511962</v>
+        <v>10.41576555023923</v>
       </c>
       <c r="D64" t="n">
-        <v>7.658947615594884</v>
+        <v>3.995490928851837</v>
       </c>
       <c r="E64" t="n">
-        <v>48.32535885167464</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F64" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G64" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>51.67464114832536</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I64" t="n">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="J64" t="n">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
@@ -2504,28 +2504,28 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>21.18155502392344</v>
+        <v>9.841315789473684</v>
       </c>
       <c r="D65" t="n">
-        <v>7.700872209280241</v>
+        <v>3.8273044572059</v>
       </c>
       <c r="E65" t="n">
-        <v>48.08612440191388</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F65" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G65" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>51.91387559808612</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I65" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
@@ -2536,28 +2536,28 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>21.24334928229665</v>
+        <v>10.62162679425837</v>
       </c>
       <c r="D66" t="n">
-        <v>7.729015775653017</v>
+        <v>4.091662304258153</v>
       </c>
       <c r="E66" t="n">
-        <v>47.84688995215311</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F66" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="G66" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H66" t="n">
-        <v>52.15311004784689</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I66" t="n">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="J66" t="n">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
@@ -2568,28 +2568,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>21.69485645933015</v>
+        <v>10.36547846889952</v>
       </c>
       <c r="D67" t="n">
-        <v>7.895106824529872</v>
+        <v>4.021910803852652</v>
       </c>
       <c r="E67" t="n">
-        <v>48.32535885167464</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F67" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G67" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H67" t="n">
-        <v>51.67464114832536</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I67" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="J67" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
@@ -2600,28 +2600,28 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>21.59995215311005</v>
+        <v>9.502631578947369</v>
       </c>
       <c r="D68" t="n">
-        <v>7.871240525015942</v>
+        <v>3.755641529179572</v>
       </c>
       <c r="E68" t="n">
-        <v>47.84688995215311</v>
+        <v>76.07655502392345</v>
       </c>
       <c r="F68" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G68" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H68" t="n">
-        <v>52.15311004784689</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="I68" t="n">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="J68" t="n">
-        <v>62</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
@@ -2632,28 +2632,28 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>22.01665071770335</v>
+        <v>9.615311004784688</v>
       </c>
       <c r="D69" t="n">
-        <v>8.017911349574009</v>
+        <v>3.802302256667304</v>
       </c>
       <c r="E69" t="n">
-        <v>48.5645933014354</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F69" t="n">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G69" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H69" t="n">
-        <v>51.43540669856459</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I69" t="n">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="J69" t="n">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
@@ -2664,28 +2664,28 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>23.00358851674641</v>
+        <v>9.576124401913875</v>
       </c>
       <c r="D70" t="n">
-        <v>8.358613173791804</v>
+        <v>3.799597661433182</v>
       </c>
       <c r="E70" t="n">
-        <v>50.47846889952153</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F70" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H70" t="n">
-        <v>49.52153110047847</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I70" t="n">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="J70" t="n">
-        <v>64</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -2696,28 +2696,28 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>22.20387559808613</v>
+        <v>9.71799043062201</v>
       </c>
       <c r="D71" t="n">
-        <v>8.083808829102992</v>
+        <v>3.853457661505693</v>
       </c>
       <c r="E71" t="n">
-        <v>49.2822966507177</v>
+        <v>76.55502392344498</v>
       </c>
       <c r="F71" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G71" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>50.7177033492823</v>
+        <v>23.44497607655502</v>
       </c>
       <c r="I71" t="n">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="J71" t="n">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72">
@@ -2728,28 +2728,28 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>23.39248803827751</v>
+        <v>10.12736842105263</v>
       </c>
       <c r="D72" t="n">
-        <v>8.498779352220893</v>
+        <v>3.992899413399367</v>
       </c>
       <c r="E72" t="n">
-        <v>49.76076555023923</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F72" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G72" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H72" t="n">
-        <v>50.23923444976076</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I72" t="n">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="J72" t="n">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73">
@@ -2760,28 +2760,28 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>23.55177033492823</v>
+        <v>10.17708133971292</v>
       </c>
       <c r="D73" t="n">
-        <v>8.559326760265474</v>
+        <v>4.018420100769653</v>
       </c>
       <c r="E73" t="n">
-        <v>49.76076555023923</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F73" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G73" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H73" t="n">
-        <v>50.23923444976076</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I73" t="n">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="J73" t="n">
-        <v>64</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74">
@@ -2792,28 +2792,28 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>23.4883971291866</v>
+        <v>10.28074162679425</v>
       </c>
       <c r="D74" t="n">
-        <v>8.545788882200386</v>
+        <v>4.064159437887608</v>
       </c>
       <c r="E74" t="n">
-        <v>50.47846889952153</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F74" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G74" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H74" t="n">
-        <v>49.52153110047847</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I74" t="n">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="J74" t="n">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
@@ -2824,28 +2824,28 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>23.78430622009569</v>
+        <v>11.00373205741627</v>
       </c>
       <c r="D75" t="n">
-        <v>8.667655707630404</v>
+        <v>4.31417833469099</v>
       </c>
       <c r="E75" t="n">
-        <v>49.76076555023923</v>
+        <v>75.5980861244019</v>
       </c>
       <c r="F75" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G75" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H75" t="n">
-        <v>50.23923444976076</v>
+        <v>24.40191387559809</v>
       </c>
       <c r="I75" t="n">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="J75" t="n">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
@@ -2856,28 +2856,28 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>23.90657894736842</v>
+        <v>11.34566985645933</v>
       </c>
       <c r="D76" t="n">
-        <v>8.722742862646005</v>
+        <v>4.438959278241112</v>
       </c>
       <c r="E76" t="n">
-        <v>50.23923444976076</v>
+        <v>74.64114832535886</v>
       </c>
       <c r="F76" t="n">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G76" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>49.76076555023923</v>
+        <v>25.35885167464115</v>
       </c>
       <c r="I76" t="n">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="J76" t="n">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
@@ -2888,28 +2888,28 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>24.24985645933014</v>
+        <v>11.40866028708134</v>
       </c>
       <c r="D77" t="n">
-        <v>8.85477285181811</v>
+        <v>4.476418514504219</v>
       </c>
       <c r="E77" t="n">
-        <v>50.95693779904307</v>
+        <v>74.64114832535886</v>
       </c>
       <c r="F77" t="n">
+        <v>162</v>
+      </c>
+      <c r="G77" t="n">
+        <v>26</v>
+      </c>
+      <c r="H77" t="n">
+        <v>25.35885167464115</v>
+      </c>
+      <c r="I77" t="n">
+        <v>80</v>
+      </c>
+      <c r="J77" t="n">
         <v>150</v>
-      </c>
-      <c r="G77" t="n">
-        <v>38</v>
-      </c>
-      <c r="H77" t="n">
-        <v>49.04306220095694</v>
-      </c>
-      <c r="I77" t="n">
-        <v>167</v>
-      </c>
-      <c r="J77" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="78">
@@ -2920,28 +2920,28 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>24.28122009569378</v>
+        <v>11.36188995215311</v>
       </c>
       <c r="D78" t="n">
-        <v>8.886862565561554</v>
+        <v>4.480057000423416</v>
       </c>
       <c r="E78" t="n">
-        <v>50.95693779904307</v>
+        <v>74.64114832535886</v>
       </c>
       <c r="F78" t="n">
+        <v>162</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27</v>
+      </c>
+      <c r="H78" t="n">
+        <v>25.35885167464115</v>
+      </c>
+      <c r="I78" t="n">
+        <v>79</v>
+      </c>
+      <c r="J78" t="n">
         <v>150</v>
-      </c>
-      <c r="G78" t="n">
-        <v>39</v>
-      </c>
-      <c r="H78" t="n">
-        <v>49.04306220095694</v>
-      </c>
-      <c r="I78" t="n">
-        <v>166</v>
-      </c>
-      <c r="J78" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="79">
@@ -2952,28 +2952,28 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>24.36265550239235</v>
+        <v>11.366004784689</v>
       </c>
       <c r="D79" t="n">
-        <v>8.935109660254255</v>
+        <v>4.499797551348346</v>
       </c>
       <c r="E79" t="n">
-        <v>50.95693779904307</v>
+        <v>74.64114832535886</v>
       </c>
       <c r="F79" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H79" t="n">
-        <v>49.04306220095694</v>
+        <v>25.35885167464115</v>
       </c>
       <c r="I79" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="J79" t="n">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80">
@@ -2984,28 +2984,28 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>24.45665071770335</v>
+        <v>10.78688995215311</v>
       </c>
       <c r="D80" t="n">
-        <v>8.987747277405589</v>
+        <v>4.327570657297216</v>
       </c>
       <c r="E80" t="n">
-        <v>50.95693779904307</v>
+        <v>75.35885167464114</v>
       </c>
       <c r="F80" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H80" t="n">
-        <v>49.04306220095694</v>
+        <v>24.64114832535885</v>
       </c>
       <c r="I80" t="n">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="J80" t="n">
-        <v>67</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81">
@@ -3016,28 +3016,28 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>24.59911483253589</v>
+        <v>10.04466507177033</v>
       </c>
       <c r="D81" t="n">
-        <v>9.057414048076142</v>
+        <v>4.105187822247026</v>
       </c>
       <c r="E81" t="n">
-        <v>50.95693779904307</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F81" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H81" t="n">
-        <v>49.04306220095694</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I81" t="n">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="J81" t="n">
-        <v>66</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82">
@@ -3048,28 +3048,28 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>24.68968899521531</v>
+        <v>10.10954545454545</v>
       </c>
       <c r="D82" t="n">
-        <v>9.109374173619997</v>
+        <v>4.143606508266238</v>
       </c>
       <c r="E82" t="n">
-        <v>50.95693779904307</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="F82" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H82" t="n">
-        <v>49.04306220095694</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="I82" t="n">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="J82" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83">
@@ -3080,28 +3080,28 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>24.95272727272728</v>
+        <v>9.320622009569378</v>
       </c>
       <c r="D83" t="n">
-        <v>9.21727936008379</v>
+        <v>3.907327101499966</v>
       </c>
       <c r="E83" t="n">
-        <v>51.19617224880383</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="F83" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H83" t="n">
-        <v>48.80382775119617</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I83" t="n">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="J83" t="n">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
@@ -3112,28 +3112,28 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>25.23452153110048</v>
+        <v>9.233325358851671</v>
       </c>
       <c r="D84" t="n">
-        <v>9.33729626570833</v>
+        <v>3.89992092031509</v>
       </c>
       <c r="E84" t="n">
-        <v>50.95693779904307</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F84" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H84" t="n">
-        <v>49.04306220095694</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I84" t="n">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="J84" t="n">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85">
@@ -3144,28 +3144,28 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>25.57595693779904</v>
+        <v>9.991363636363635</v>
       </c>
       <c r="D85" t="n">
-        <v>9.479976386914677</v>
+        <v>4.163238270644909</v>
       </c>
       <c r="E85" t="n">
-        <v>50.47846889952153</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F85" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H85" t="n">
-        <v>49.52153110047847</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I85" t="n">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="J85" t="n">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
@@ -3176,28 +3176,28 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>25.42090909090909</v>
+        <v>10.10421052631579</v>
       </c>
       <c r="D86" t="n">
-        <v>9.438616184195482</v>
+        <v>4.222573078915741</v>
       </c>
       <c r="E86" t="n">
-        <v>51.19617224880383</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F86" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G86" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H86" t="n">
-        <v>48.80382775119617</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I86" t="n">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="J86" t="n">
-        <v>66</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87">
@@ -3208,28 +3208,28 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>25.63112440191388</v>
+        <v>8.755765550239234</v>
       </c>
       <c r="D87" t="n">
-        <v>9.535259903314627</v>
+        <v>3.822769759366141</v>
       </c>
       <c r="E87" t="n">
-        <v>51.19617224880383</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F87" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G87" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H87" t="n">
-        <v>48.80382775119617</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I87" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="J87" t="n">
-        <v>65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
@@ -3240,28 +3240,28 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>25.93674641148325</v>
+        <v>8.490382775119615</v>
       </c>
       <c r="D88" t="n">
-        <v>9.667331433735654</v>
+        <v>3.759146129345206</v>
       </c>
       <c r="E88" t="n">
-        <v>50.95693779904307</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F88" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G88" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88" t="n">
-        <v>49.04306220095694</v>
+        <v>21.5311004784689</v>
       </c>
       <c r="I88" t="n">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="J88" t="n">
-        <v>65</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89">
@@ -3272,28 +3272,28 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>26.31696172248804</v>
+        <v>8.273277511961723</v>
       </c>
       <c r="D89" t="n">
-        <v>9.822270268981775</v>
+        <v>3.716180806906038</v>
       </c>
       <c r="E89" t="n">
-        <v>50.95693779904307</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F89" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G89" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89" t="n">
-        <v>49.04306220095694</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I89" t="n">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="J89" t="n">
-        <v>63</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90">
@@ -3304,28 +3304,28 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>26.86607655502392</v>
+        <v>7.319617224880384</v>
       </c>
       <c r="D90" t="n">
-        <v>10.04168285361832</v>
+        <v>3.447506830099629</v>
       </c>
       <c r="E90" t="n">
-        <v>50.47846889952153</v>
+        <v>80.62200956937799</v>
       </c>
       <c r="F90" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G90" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H90" t="n">
-        <v>49.52153110047847</v>
+        <v>19.37799043062201</v>
       </c>
       <c r="I90" t="n">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="J90" t="n">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91">
@@ -3336,28 +3336,28 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>27.32944976076555</v>
+        <v>7.92877990430622</v>
       </c>
       <c r="D91" t="n">
-        <v>10.22483346000505</v>
+        <v>3.645153822373763</v>
       </c>
       <c r="E91" t="n">
-        <v>50.47846889952153</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F91" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G91" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H91" t="n">
-        <v>49.52153110047847</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I91" t="n">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>57</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
